--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeay\Documents\GitHub\CSCI5650-GNN-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C46A9F5F-B417-4270-B4C5-0A736B94257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B254E43-E0FC-4A14-A9FE-0B8F24F5EEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E10E7D10-A644-46B5-AE84-2373A35F2025}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E10E7D10-A644-46B5-AE84-2373A35F2025}"/>
   </bookViews>
   <sheets>
     <sheet name="FGNN" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C9AEF8-6266-47AC-A2D5-D760E0C2ECD6}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A38351D-D937-4080-BE54-B1F058CB878D}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeay\Documents\GitHub\CSCI5650-GNN-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B254E43-E0FC-4A14-A9FE-0B8F24F5EEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8D59A75-B073-42B6-9A3A-F298F0C0607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E10E7D10-A644-46B5-AE84-2373A35F2025}"/>
   </bookViews>
@@ -705,7 +705,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
